--- a/jobOffers.xlsx
+++ b/jobOffers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,171 +458,171 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/bi-developer-etl-engineer-warszawa-zlota-59,oferta,1002567276?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/2023-quant-strats-internship-in-warsaw-june-warszawa,oferta,1002567892?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BI Developer – ETL Engineer</t>
+          <t>2023 Quant Strats Internship in Warsaw- June</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ITDS Polska Sp. z o.o.</t>
+          <t>CREDIT SUISSE Poland</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['Linux', 'Microsoft Power BI', 'Qlik', 'QlikSense']</t>
+          <t>['C#', 'F#', 'OpenShift', 'TeamCity', 'C++', 'Python']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/2023-risk-graduate-program-in-warsaw-june-warszawa,oferta,1002566455?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/bi-developer-etl-engineer-warszawa-zlota-59,oferta,1002567276?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023 Risk Graduate Program in Warsaw- June</t>
+          <t>BI Developer – ETL Engineer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CREDIT SUISSE Poland</t>
+          <t>ITDS Polska Sp. z o.o.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['SQL']</t>
+          <t>['Linux', 'Microsoft Power BI', 'Qlik', 'QlikSense']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/programista-python-warszawa-jutrzenki-118,oferta,1002598116?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/2023-risk-graduate-program-in-warsaw-june-warszawa,oferta,1002566455?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Programista Python</t>
+          <t>2023 Risk Graduate Program in Warsaw- June</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ENIGMA Systemy Ochrony Informacji Sp. z o.o.</t>
+          <t>CREDIT SUISSE Poland</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['Python', 'Django', 'DRF', 'JavaScript', 'TypeScript', 'PostgreSQL', 'PyCharm', 'GitLab', 'TeamCity', 'Jira']</t>
+          <t>['SQL']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/python-developer-ai-nlp-data-science-warszawa-szturmowa-2a,oferta,1002616538?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/programista-python-warszawa-jutrzenki-118,oferta,1002598116?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Python Developer (AI, NLP, Data Science)</t>
+          <t>Programista Python</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nexio Management Sp. z o.o.</t>
+          <t>ENIGMA Systemy Ochrony Informacji Sp. z o.o.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['Python', 'Pytest', 'FastAPI', 'MongoDB', 'PostgresDB']</t>
+          <t>['Python', 'Django', 'DRF', 'JavaScript', 'TypeScript', 'PostgreSQL', 'PyCharm', 'GitLab', 'TeamCity', 'Jira']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/internship-in-language-data-operations-group-voice-intelligent-research-team-warszawa-plac-europejski-1,oferta,1002599800?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/python-developer-ai-nlp-data-science-warszawa-szturmowa-2a,oferta,1002616538?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Internship in Language Data Operations Group, Voice Intelligent Research Team</t>
+          <t>Python Developer (AI, NLP, Data Science)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Samsung R&amp;D Institute Poland</t>
+          <t>Nexio Management Sp. z o.o.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['Bash', 'Jenkins', 'Docker', 'AWS', 'Python', 'Django', 'Pandas', 'JavaScript', 'Vue.js', 'Android', 'Kotlin', 'PostgreSQL', 'MySQL']</t>
+          <t>['Python', 'Pytest', 'FastAPI', 'MongoDB', 'PostgresDB']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/junior-php-js-developer-tech-support-warszawa,oferta,1002586489?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/internship-in-language-data-operations-group-voice-intelligent-research-team-warszawa-plac-europejski-1,oferta,1002599800?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Junior PHP/JS Developer - Tech Support</t>
+          <t>Internship in Language Data Operations Group, Voice Intelligent Research Team</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>RTB House</t>
+          <t>Samsung R&amp;D Institute Poland</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['PHP', 'NodeJS', 'HTML', 'CSS', 'JS', 'XML', 'JavaScript']</t>
+          <t>['Bash', 'Jenkins', 'Docker', 'AWS', 'Python', 'Django', 'Pandas', 'JavaScript', 'Vue.js', 'Android', 'Kotlin', 'PostgreSQL', 'MySQL']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/mlodszy-specjalista-ds-taryfikacji-warszawa-stanislawa-noakowskiego-22,oferta,1002605982?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/junior-php-js-developer-tech-support-warszawa,oferta,1002586489?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Młodszy Specjalista ds. Taryfikacji</t>
+          <t>Junior PHP/JS Developer - Tech Support</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>InterRisk Towarzystwo Ubezpieczeń Spółka Akcyjna Vienna Insurance Group</t>
+          <t>RTB House</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['PHP', 'NodeJS', 'HTML', 'CSS', 'JS', 'XML', 'JavaScript']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/praktyki-ryzyko-kredytowe-financial-services-credit-risk-warszawa-inflancka-4a,oferta,1002602400?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/mlodszy-specjalista-ds-taryfikacji-warszawa-stanislawa-noakowskiego-22,oferta,1002605982?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Praktyki - Ryzyko Kredytowe - Financial Services Credit Risk</t>
+          <t>Młodszy Specjalista ds. Taryfikacji</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>KPMG</t>
+          <t>InterRisk Towarzystwo Ubezpieczeń Spółka Akcyjna Vienna Insurance Group</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -634,51 +634,51 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/application-developer-us-business-hrs-gdansk-aleja-grunwaldzka-472b,oferta,1002585703?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/praktyki-ryzyko-kredytowe-financial-services-credit-risk-warszawa-inflancka-4a,oferta,1002602400?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Application Developer - US business hrs</t>
+          <t>Praktyki - Ryzyko Kredytowe - Financial Services Credit Risk</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Acxiom Global Service Center Polska sp. z o. o</t>
+          <t>KPMG</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['SQL', 'Python', 'Perl']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/2023-quant-strats-internship-in-warsaw-june-warszawa,oferta,1002567892?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/application-developer-us-business-hrs-gdansk-aleja-grunwaldzka-472b,oferta,1002585703?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023 Quant Strats Internship in Warsaw- June</t>
+          <t>Application Developer - US business hrs</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CREDIT SUISSE Poland</t>
+          <t>Acxiom Global Service Center Polska sp. z o. o</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['C#', 'F#', 'OpenShift', 'TeamCity', 'C++', 'Python']</t>
+          <t>['SQL', 'Python', 'Perl']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/angular-developer-warszawa,oferta,1002605590?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/angular-developer-warszawa,oferta,1002605590?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/internship-fullstack-intern-in-cloud-services-warszawa-plac-europejski-1,oferta,1002598074?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/internship-fullstack-intern-in-cloud-services-warszawa-plac-europejski-1,oferta,1002598074?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -722,7 +722,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/junior-python-developer-warszawa-skaryszewska-7,oferta,1002587622?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/junior-python-developer-warszawa-skaryszewska-7,oferta,1002587622?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -744,7 +744,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/mlodszy-specjalista-ds-modeli-taryfowych-centre-of-excellence-k-m-warszawa-postepu-15,oferta,1002586182?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/mlodszy-specjalista-ds-modeli-taryfowych-centre-of-excellence-k-m-warszawa-postepu-15,oferta,1002586182?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -766,7 +766,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/specjalista-ds-data-science-obszar-finansowy-warszawa-wynalazek-1,oferta,1002585701?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/specjalista-ds-data-science-obszar-finansowy-warszawa-wynalazek-1,oferta,1002585701?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -788,7 +788,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/analityk-biznesowy-warszawa-wybrzeze-kosciuszkowskie-41,oferta,1002601186?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/analityk-biznesowy-warszawa-wybrzeze-kosciuszkowskie-41,oferta,1002601186?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/program-stazowy-magenta-start-dzial-analiz-cvm-i-business-intelligence-b2c-warszawa-marynarska-12,oferta,1002580511?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/program-stazowy-magenta-start-dzial-analiz-cvm-i-business-intelligence-b2c-warszawa-marynarska-12,oferta,1002580511?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/rpa-developer-mazowieckie,oferta,9959321?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/rpa-developer-mazowieckie,oferta,9959321?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -854,7 +854,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/specjalista-programista-c-c%2b%2b-warszawa-aleje-jerozolimskie-202,oferta,1002576260?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/specjalista-programista-c-c%2b%2b-warszawa-aleje-jerozolimskie-202,oferta,1002576260?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -876,7 +876,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/junior-python-developer-warszawa,oferta,1002612807?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/junior-python-developer-warszawa,oferta,1002612807?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -898,7 +898,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/junior-actuarial-model-developer-warszawa,oferta,1002608207?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/junior-actuarial-model-developer-warszawa,oferta,1002608207?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -920,7 +920,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/model-developer-interest-rates-balance-sheet-junior-specialist-warszawa-zajecza-4,oferta,1002566363?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/model-developer-interest-rates-balance-sheet-junior-specialist-warszawa-zajecza-4,oferta,1002566363?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -942,66 +942,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.pracuj.pl/praca/junior-data-scientist-warszawa-inflancka-4a,oferta,1002559214?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
+          <t>https://www.pracuj.pl/praca/mlodszy-programista-c-c%2b%2b-warszawa-poligonowa-30,oferta,1002580545?s=dda98247&amp;searchId=MTY4NTI1NDAxMTMxOC4xNjI0</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Junior Data Scientist</t>
+          <t>Młodszy programista C/C++</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PROVIDENT Polska</t>
+          <t>PIT-RADWAR S.A.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['R', 'Python', 'SQL']</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://www.pracuj.pl/praca/mlodszy-programista-c-c%2b%2b-warszawa-poligonowa-30,oferta,1002580545?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Młodszy programista C/C++</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>PIT-RADWAR S.A.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
           <t>['C', 'C++', 'SVN', 'Git']</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>https://www.pracuj.pl/praca/specjalista-ka-ds-zarzadzania-ryzykiem-warszawa-marszalkowska-142,oferta,1002560586?s=dda98247&amp;searchId=MTY4NTE5NjA5MzE4Mi44NDMz</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Specjalista/ka ds. zarządzania ryzykiem</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>ROCKBRIDGE TOWARZYSTWO FUNDUSZY INWESTYCYJNYCH S.A.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>[]</t>
         </is>
       </c>
     </row>
